--- a/test/org/hy/common/report/junit/readVertical/JU_ReadVertical_Datas.xlsx
+++ b/test/org/hy/common/report/junit/readVertical/JU_ReadVertical_Datas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace_SearchDesktop\hy.common.report\test\org\hy\common\report\junit\readVertical\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +55,22 @@
   </si>
   <si>
     <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年01月01日 01:01:01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年02月02日 02:02:02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年03月03日 03:03:03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,6 +228,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="53">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -233,36 +255,43 @@
     <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -588,18 +617,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -615,8 +645,11 @@
       <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,8 +665,11 @@
       <c r="E2" s="3">
         <v>42736.042372685188</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -649,8 +685,11 @@
       <c r="E3" s="3">
         <v>42768.084745370368</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -665,6 +704,9 @@
       </c>
       <c r="E4" s="3">
         <v>42797.127118055556</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/test/org/hy/common/report/junit/readVertical/JU_ReadVertical_Datas.xlsx
+++ b/test/org/hy/common/report/junit/readVertical/JU_ReadVertical_Datas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>2017年03月03日 03:03:03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年01月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年02月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年03月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +225,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,6 +242,13 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,19 +640,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -648,8 +672,11 @@
       <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,8 +695,11 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -688,8 +718,11 @@
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,12 +740,15 @@
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/test/org/hy/common/report/junit/readVertical/JU_ReadVertical_Datas.xlsx
+++ b/test/org/hy/common/report/junit/readVertical/JU_ReadVertical_Datas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace_SearchDesktop\hy.common.report\test\org\hy\common\report\junit\readVertical\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\hy.common.report\test\org\hy\common\report\junit\readVertical\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146B8A2E-7C73-4FCA-9755-F1D273042DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>1月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,15 +88,28 @@
   </si>
   <si>
     <t>2017年03月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳税（千分位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,876,543,210.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,234,567,890.12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -225,7 +239,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,6 +263,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -639,21 +654,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="26.125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -675,8 +690,11 @@
       <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,8 +716,11 @@
       <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,8 +742,11 @@
       <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,6 +768,39 @@
       <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H14" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
